--- a/Dataset Excel/Communique 14.xlsx
+++ b/Dataset Excel/Communique 14.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FD3664-CA46-4642-BB80-6C7BABB7B01F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCCBE5-105F-4548-B2FF-0A5D5E61E523}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="52">
   <si>
     <t>ID Patient</t>
   </si>
@@ -170,9 +175,6 @@
     <t>Sous Traitement</t>
   </si>
   <si>
-    <t>CMIF</t>
-  </si>
-  <si>
     <t>Centre de Sante Darou Marnane</t>
   </si>
   <si>
@@ -192,6 +194,9 @@
   </si>
   <si>
     <t>14/3/2020</t>
+  </si>
+  <si>
+    <t>CTMIT Fann</t>
   </si>
 </sst>
 </file>
@@ -451,7 +456,7 @@
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>C013FRAM22</v>
+            <v>C013FRAF22</v>
           </cell>
         </row>
       </sheetData>
@@ -831,8 +836,8 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +904,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$3</f>
@@ -939,15 +944,15 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$5</f>
@@ -984,15 +989,15 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="str">
         <f>'[2]Communiques Officiels Ministere'!$C$5</f>
@@ -1026,15 +1031,15 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$5</f>
@@ -1049,6 +1054,9 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
@@ -1059,15 +1067,15 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$6</f>
@@ -1092,15 +1100,15 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$7</f>
@@ -1125,15 +1133,15 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$8</f>
@@ -1158,15 +1166,15 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$9</f>
@@ -1191,15 +1199,15 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$10</f>
@@ -1224,15 +1232,15 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$11</f>
@@ -1257,15 +1265,15 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$12</f>
@@ -1290,15 +1298,15 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$13</f>
@@ -1323,15 +1331,15 @@
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$14</f>
@@ -1356,15 +1364,15 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$15</f>
@@ -1389,15 +1397,15 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$16</f>
@@ -1422,15 +1430,15 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$17</f>
@@ -1455,15 +1463,15 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$18</f>
@@ -1488,15 +1496,15 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$19</f>
@@ -1521,15 +1529,15 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$20</f>
@@ -1554,15 +1562,15 @@
         <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$21</f>
@@ -1584,21 +1592,24 @@
         <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$22</f>
@@ -1617,7 +1628,7 @@
         <v>44107</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
@@ -1626,31 +1637,34 @@
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" t="s">
         <v>23</v>
+      </c>
+      <c r="N22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$23</f>
-        <v>C013FRAM22</v>
+        <v>C013FRAF22</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1665,34 +1679,40 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" t="s">
         <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ref="C24:C25" si="0">UPPER("C"&amp; TEXT(RIGHT($B24,2), "000") &amp; LEFT($H24, 3) &amp; LEFT($J24, 1) &amp; ROW()-1)</f>
         <v>C014SENM23</v>
       </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
@@ -1713,15 +1733,15 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1752,7 +1772,7 @@
         <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1761,21 +1781,14 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{07320936-E895-4856-B798-12E03CD9330E}">
           <x14:formula1>
             <xm:f>'Data Validation'!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>I1 I24:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1D3757B8-EBA6-41FE-B843-497EE4EC8CE6}">
-          <x14:formula1>
-            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1 J24:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F355BC1-CADA-43D3-9344-BAD4DA5DBA18}">
           <x14:formula1>
@@ -1789,65 +1802,53 @@
           </x14:formula1>
           <xm:sqref>K1 K24:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{57685A6D-62B7-4B2B-8956-7B98A2B02974}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{2EBE8182-EC86-40C7-B858-2720457B581B}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I10:I20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B8C3F680-1675-4798-B875-5B7EC0B0380A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC6F051B-49B7-4024-BADC-A54308505659}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J20</xm:sqref>
+          <xm:sqref>K2:L20 K21:K23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13DE6687-68BB-4738-85FD-E2EA81989B7B}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:L20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{3A25F495-77D9-4DF7-A8FC-A0F56BD8DD29}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 5.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C11F4E2D-0569-4EE2-B139-522529830182}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{2E6CD4F1-00BB-41E6-9953-2B14C284BD9A}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 5.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E20A6F81-4158-46F1-9EB9-784B47034B89}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{12F07106-2238-4FCA-B9FC-1A05F1A324C9}">
           <x14:formula1>
             <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 10.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:J4</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{43B2B07A-814A-410A-9C32-4E1D27C52845}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D89F9F01-5B42-462A-98F5-B388FC6932F0}">
           <x14:formula1>
             <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 11.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:J9</xm:sqref>
+          <xm:sqref>I5:I9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{85E79310-3844-4044-8D0F-DD2E9C30D03F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30FFDA28-52B2-4D59-83FC-C2AA32B95191}">
           <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J21:K23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89E34658-0BA1-4ADB-BC97-F6CBA1A9AFA6}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
+            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L21:L23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B0FE417B-9220-496F-9BF2-971A21107CC7}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{214CC9E2-F24E-4503-8ED3-84ED5288175B}">
           <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
+            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I21:I23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48B9F86A-8EFD-4BF3-AAE5-F48DB45C3AC7}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1969,4 +1970,193 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038F85C4C18602F4B945AA8D4F86956EE" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5510518b82f36aedba711892c1b561f3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="071c009a-ce67-49e4-abae-6a46c995900d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86b4007d165b35a68039d453d7963aea" ns2:_="">
+    <xsd:import namespace="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="071c009a-ce67-49e4-abae-6a46c995900d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27EF43D-C66B-46F2-A32E-B2FBE32FA597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F1FED8-D89E-43E4-9602-6117DAE7157C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01AE8009-F44B-4626-AD1E-9BD493ADEDAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>